--- a/HN SA 2016 ( DEPOSITOS )/DEPOSITOS ABRIL 2016.-/ALCOSUR.-.xlsx
+++ b/HN SA 2016 ( DEPOSITOS )/DEPOSITOS ABRIL 2016.-/ALCOSUR.-.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="99">
   <si>
     <t xml:space="preserve">Fecha</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t xml:space="preserve">001-001-2766</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N.C</t>
   </si>
   <si>
     <t xml:space="preserve">001-001-3454</t>
@@ -434,7 +431,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,10 +492,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -507,19 +500,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -552,10 +533,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O1048576"/>
+  <dimension ref="A1:O71"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="N:O"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -762,38 +743,33 @@
       <c r="H5" s="14" t="n">
         <v>53404000</v>
       </c>
-      <c r="I5" s="15" t="n">
+      <c r="I5" s="10" t="n">
         <v>1546710</v>
       </c>
       <c r="J5" s="11" t="n">
         <v>42502</v>
       </c>
-      <c r="K5" s="16" t="n">
+      <c r="K5" s="15" t="n">
         <v>43168000</v>
       </c>
-      <c r="L5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="10" t="s">
+      <c r="L5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="10"/>
+      <c r="O5" s="16"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="n">
+        <v>42465</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="17" t="n">
-        <f aca="false">K5-H5</f>
-        <v>-10236000</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="n">
-        <v>42465</v>
-      </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>14</v>
@@ -810,7 +786,7 @@
       <c r="H6" s="9" t="n">
         <v>38107000</v>
       </c>
-      <c r="I6" s="15" t="n">
+      <c r="I6" s="10" t="n">
         <v>8941606</v>
       </c>
       <c r="J6" s="11" t="n">
@@ -819,23 +795,23 @@
       <c r="K6" s="12" t="n">
         <v>38107000</v>
       </c>
-      <c r="L6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="L6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N6" s="10"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="18" t="n">
+      <c r="A7" s="5" t="n">
         <v>42465</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>14</v>
@@ -852,7 +828,7 @@
       <c r="H7" s="9" t="n">
         <v>24087000</v>
       </c>
-      <c r="I7" s="15" t="n">
+      <c r="I7" s="10" t="n">
         <v>8941608</v>
       </c>
       <c r="J7" s="11" t="n">
@@ -861,29 +837,29 @@
       <c r="K7" s="12" t="n">
         <v>24087000</v>
       </c>
-      <c r="L7" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M7" s="15" t="s">
+      <c r="L7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N7" s="10"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="n">
+      <c r="A8" s="5" t="n">
         <v>42465</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>30</v>
       </c>
       <c r="F8" s="7" t="n">
         <v>5000</v>
@@ -894,7 +870,7 @@
       <c r="H8" s="9" t="n">
         <v>23575000</v>
       </c>
-      <c r="I8" s="15" t="n">
+      <c r="I8" s="10" t="n">
         <v>1546704</v>
       </c>
       <c r="J8" s="11" t="n">
@@ -903,10 +879,10 @@
       <c r="K8" s="12" t="n">
         <v>23575000</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="15" t="s">
+      <c r="L8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N8" s="10"/>
@@ -916,10 +892,10 @@
         <v>42465</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>14</v>
@@ -946,22 +922,22 @@
         <v>28303000</v>
       </c>
       <c r="L9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="n">
+        <v>42465</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="18" t="n">
-        <v>42465</v>
-      </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>14</v>
@@ -986,22 +962,22 @@
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="n">
+        <v>42465</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="18" t="n">
-        <v>42465</v>
-      </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>14</v>
@@ -1028,7 +1004,7 @@
         <v>30175000</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="10" t="s">
         <v>17</v>
@@ -1036,14 +1012,14 @@
       <c r="N11" s="10"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="18" t="n">
+      <c r="A12" s="5" t="n">
         <v>42465</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>14</v>
@@ -1068,7 +1044,7 @@
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M12" s="10" t="s">
         <v>17</v>
@@ -1076,14 +1052,14 @@
       <c r="N12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="18" t="n">
+      <c r="A13" s="5" t="n">
         <v>42465</v>
       </c>
       <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>14</v>
@@ -1110,7 +1086,7 @@
         <v>33515000</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M13" s="10" t="s">
         <v>17</v>
@@ -1118,14 +1094,14 @@
       <c r="N13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="18" t="n">
+      <c r="A14" s="5" t="n">
         <v>42466</v>
       </c>
       <c r="B14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>14</v>
@@ -1142,30 +1118,30 @@
       <c r="H14" s="9" t="n">
         <v>41342500</v>
       </c>
-      <c r="I14" s="15" t="n">
+      <c r="I14" s="10" t="n">
         <v>15158466</v>
       </c>
       <c r="J14" s="11" t="n">
         <v>42507</v>
       </c>
       <c r="K14" s="12"/>
-      <c r="L14" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M14" s="15" t="s">
+      <c r="L14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N14" s="10"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="18" t="n">
+      <c r="A15" s="5" t="n">
         <v>42466</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>14</v>
@@ -1182,7 +1158,7 @@
       <c r="H15" s="9" t="n">
         <v>15540000</v>
       </c>
-      <c r="I15" s="15" t="n">
+      <c r="I15" s="10" t="n">
         <v>15158466</v>
       </c>
       <c r="J15" s="11" t="n">
@@ -1191,23 +1167,23 @@
       <c r="K15" s="12" t="n">
         <v>56882500</v>
       </c>
-      <c r="L15" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="15" t="s">
+      <c r="L15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="18" t="n">
+      <c r="A16" s="5" t="n">
         <v>42467</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>14</v>
@@ -1224,30 +1200,30 @@
       <c r="H16" s="9" t="n">
         <v>37388000</v>
       </c>
-      <c r="I16" s="15" t="n">
+      <c r="I16" s="10" t="n">
         <v>2116341</v>
       </c>
       <c r="J16" s="11" t="n">
         <v>42507</v>
       </c>
       <c r="K16" s="12"/>
-      <c r="L16" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="15" t="s">
+      <c r="L16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="18" t="n">
+      <c r="A17" s="5" t="n">
         <v>42467</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>14</v>
@@ -1264,7 +1240,7 @@
       <c r="H17" s="9" t="n">
         <v>20979000</v>
       </c>
-      <c r="I17" s="15" t="n">
+      <c r="I17" s="10" t="n">
         <v>2116341</v>
       </c>
       <c r="J17" s="11" t="n">
@@ -1273,23 +1249,23 @@
       <c r="K17" s="12" t="n">
         <v>58367000</v>
       </c>
-      <c r="L17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="15" t="s">
+      <c r="L17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M17" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N17" s="10"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="18" t="n">
+      <c r="A18" s="5" t="n">
         <v>42467</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>14</v>
@@ -1314,7 +1290,7 @@
       </c>
       <c r="K18" s="12"/>
       <c r="L18" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M18" s="10" t="s">
         <v>17</v>
@@ -1322,14 +1298,14 @@
       <c r="N18" s="10"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="18" t="n">
+      <c r="A19" s="5" t="n">
         <v>42467</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>14</v>
@@ -1356,7 +1332,7 @@
         <v>31495000</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M19" s="10" t="s">
         <v>17</v>
@@ -1364,14 +1340,14 @@
       <c r="N19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="18" t="n">
+      <c r="A20" s="5" t="n">
         <v>42469</v>
       </c>
       <c r="B20" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>14</v>
@@ -1396,7 +1372,7 @@
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M20" s="10" t="s">
         <v>17</v>
@@ -1404,14 +1380,14 @@
       <c r="N20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="18" t="n">
+      <c r="A21" s="5" t="n">
         <v>42469</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>14</v>
@@ -1438,7 +1414,7 @@
         <v>56882500</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M21" s="10" t="s">
         <v>17</v>
@@ -1446,14 +1422,14 @@
       <c r="N21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="18" t="n">
+      <c r="A22" s="5" t="n">
         <v>42468</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>14</v>
@@ -1478,7 +1454,7 @@
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M22" s="10" t="s">
         <v>17</v>
@@ -1486,14 +1462,14 @@
       <c r="N22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="18" t="n">
+      <c r="A23" s="5" t="n">
         <v>42468</v>
       </c>
       <c r="B23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>14</v>
@@ -1510,7 +1486,7 @@
       <c r="H23" s="9" t="n">
         <v>17914000</v>
       </c>
-      <c r="I23" s="15" t="n">
+      <c r="I23" s="10" t="n">
         <v>2116331</v>
       </c>
       <c r="J23" s="11" t="n">
@@ -1519,23 +1495,23 @@
       <c r="K23" s="12" t="n">
         <v>40203000</v>
       </c>
-      <c r="L23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="15" t="s">
+      <c r="L23" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M23" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="18" t="n">
+      <c r="A24" s="5" t="n">
         <v>42468</v>
       </c>
       <c r="B24" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>14</v>
@@ -1560,7 +1536,7 @@
       </c>
       <c r="K24" s="12"/>
       <c r="L24" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>17</v>
@@ -1568,14 +1544,14 @@
       <c r="N24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="18" t="n">
+      <c r="A25" s="5" t="n">
         <v>42468</v>
       </c>
       <c r="B25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="6" t="s">
         <v>48</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>14</v>
@@ -1602,7 +1578,7 @@
         <v>46103500</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>17</v>
@@ -1614,10 +1590,10 @@
         <v>42468</v>
       </c>
       <c r="B26" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="13" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="D26" s="13" t="s">
         <v>14</v>
@@ -1634,7 +1610,7 @@
       <c r="H26" s="9" t="n">
         <v>14322000</v>
       </c>
-      <c r="I26" s="15" t="n">
+      <c r="I26" s="10" t="n">
         <v>2116332</v>
       </c>
       <c r="J26" s="11" t="n">
@@ -1643,10 +1619,10 @@
       <c r="K26" s="12" t="n">
         <v>14322000</v>
       </c>
-      <c r="L26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="15" t="s">
+      <c r="L26" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N26" s="10"/>
@@ -1656,10 +1632,10 @@
         <v>42471</v>
       </c>
       <c r="B27" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>14</v>
@@ -1696,10 +1672,10 @@
         <v>42471</v>
       </c>
       <c r="B28" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>53</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>14</v>
@@ -1738,10 +1714,10 @@
         <v>42472</v>
       </c>
       <c r="B29" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="D29" s="13" t="s">
         <v>14</v>
@@ -1758,17 +1734,17 @@
       <c r="H29" s="9" t="n">
         <v>22289000</v>
       </c>
-      <c r="I29" s="15" t="n">
+      <c r="I29" s="10" t="n">
         <v>15158463</v>
       </c>
       <c r="J29" s="11" t="n">
         <v>42509</v>
       </c>
       <c r="K29" s="12"/>
-      <c r="L29" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M29" s="15" t="s">
+      <c r="L29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N29" s="10"/>
@@ -1778,10 +1754,10 @@
         <v>42472</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>14</v>
@@ -1798,17 +1774,17 @@
       <c r="H30" s="9" t="n">
         <v>17914000</v>
       </c>
-      <c r="I30" s="15" t="n">
+      <c r="I30" s="10" t="n">
         <v>15158463</v>
       </c>
       <c r="J30" s="11" t="n">
         <v>42509</v>
       </c>
       <c r="K30" s="12"/>
-      <c r="L30" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M30" s="15" t="s">
+      <c r="L30" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N30" s="10"/>
@@ -1818,10 +1794,10 @@
         <v>42472</v>
       </c>
       <c r="B31" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="13" t="s">
         <v>54</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>55</v>
       </c>
       <c r="D31" s="13" t="s">
         <v>14</v>
@@ -1838,7 +1814,7 @@
       <c r="H31" s="9" t="n">
         <v>15540000</v>
       </c>
-      <c r="I31" s="15" t="n">
+      <c r="I31" s="10" t="n">
         <v>15158463</v>
       </c>
       <c r="J31" s="11" t="n">
@@ -1847,10 +1823,10 @@
       <c r="K31" s="12" t="n">
         <v>55743000</v>
       </c>
-      <c r="L31" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M31" s="15" t="s">
+      <c r="L31" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M31" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N31" s="10"/>
@@ -1860,15 +1836,15 @@
         <v>42473</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="D32" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="19" t="s">
+      <c r="E32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F32" s="7" t="n">
@@ -1880,7 +1856,7 @@
       <c r="H32" s="9" t="n">
         <v>19053500</v>
       </c>
-      <c r="I32" s="15" t="n">
+      <c r="I32" s="10" t="n">
         <v>15158441</v>
       </c>
       <c r="J32" s="11" t="n">
@@ -1889,10 +1865,10 @@
       <c r="K32" s="12" t="n">
         <v>19053500</v>
       </c>
-      <c r="L32" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M32" s="15" t="s">
+      <c r="L32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M32" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N32" s="10"/>
@@ -1901,16 +1877,16 @@
       <c r="A33" s="5" t="n">
         <v>42473</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="D33" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F33" s="7" t="n">
@@ -1930,7 +1906,7 @@
       </c>
       <c r="K33" s="12"/>
       <c r="L33" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M33" s="10" t="s">
         <v>17</v>
@@ -1941,16 +1917,16 @@
       <c r="A34" s="5" t="n">
         <v>42473</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="19" t="s">
+      <c r="D34" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="13" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="7" t="n">
@@ -1972,7 +1948,7 @@
         <v>59057500</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>17</v>
@@ -1983,13 +1959,13 @@
       <c r="A35" s="5" t="n">
         <v>42475</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="13" t="s">
@@ -2012,7 +1988,7 @@
       </c>
       <c r="K35" s="12"/>
       <c r="L35" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>17</v>
@@ -2023,13 +1999,13 @@
       <c r="A36" s="5" t="n">
         <v>42475</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C36" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E36" s="13" t="s">
@@ -2052,7 +2028,7 @@
       </c>
       <c r="K36" s="12"/>
       <c r="L36" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>17</v>
@@ -2063,17 +2039,17 @@
       <c r="A37" s="5" t="n">
         <v>42475</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37" s="7" t="n">
         <v>5200</v>
@@ -2094,7 +2070,7 @@
         <v>61507000</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M37" s="10" t="s">
         <v>17</v>
@@ -2105,13 +2081,13 @@
       <c r="A38" s="5" t="n">
         <v>42475</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="19" t="s">
+      <c r="D38" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E38" s="13" t="s">
@@ -2126,17 +2102,17 @@
       <c r="H38" s="9" t="n">
         <v>14380000</v>
       </c>
-      <c r="I38" s="15" t="n">
+      <c r="I38" s="10" t="n">
         <v>2116348</v>
       </c>
       <c r="J38" s="11" t="n">
         <v>42494</v>
       </c>
       <c r="K38" s="12"/>
-      <c r="L38" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M38" s="15" t="s">
+      <c r="L38" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M38" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N38" s="10"/>
@@ -2145,13 +2121,13 @@
       <c r="A39" s="5" t="n">
         <v>42475</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E39" s="13" t="s">
@@ -2166,17 +2142,17 @@
       <c r="H39" s="9" t="n">
         <v>17914000</v>
       </c>
-      <c r="I39" s="15" t="n">
+      <c r="I39" s="10" t="n">
         <v>2116348</v>
       </c>
       <c r="J39" s="11" t="n">
         <v>42494</v>
       </c>
       <c r="K39" s="12"/>
-      <c r="L39" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" s="15" t="s">
+      <c r="L39" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M39" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N39" s="10"/>
@@ -2185,13 +2161,13 @@
       <c r="A40" s="5" t="n">
         <v>42475</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C40" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E40" s="13" t="s">
@@ -2206,7 +2182,7 @@
       <c r="H40" s="9" t="n">
         <v>24087000</v>
       </c>
-      <c r="I40" s="15" t="n">
+      <c r="I40" s="10" t="n">
         <v>2116348</v>
       </c>
       <c r="J40" s="11" t="n">
@@ -2215,10 +2191,10 @@
       <c r="K40" s="12" t="n">
         <v>56381000</v>
       </c>
-      <c r="L40" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M40" s="15" t="s">
+      <c r="L40" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N40" s="10"/>
@@ -2228,10 +2204,10 @@
         <v>42475</v>
       </c>
       <c r="B41" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>14</v>
@@ -2258,7 +2234,7 @@
         <v>28303000</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>17</v>
@@ -2269,13 +2245,13 @@
       <c r="A42" s="5" t="n">
         <v>42475</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="19" t="s">
+      <c r="D42" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E42" s="13" t="s">
@@ -2298,7 +2274,7 @@
       </c>
       <c r="K42" s="12"/>
       <c r="L42" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M42" s="10" t="s">
         <v>17</v>
@@ -2309,13 +2285,13 @@
       <c r="A43" s="5" t="n">
         <v>42475</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E43" s="13" t="s">
@@ -2340,7 +2316,7 @@
         <v>30175000</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M43" s="10" t="s">
         <v>17</v>
@@ -2352,10 +2328,10 @@
         <v>42478</v>
       </c>
       <c r="B44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C44" s="13" t="s">
         <v>68</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>69</v>
       </c>
       <c r="D44" s="13" t="s">
         <v>14</v>
@@ -2380,7 +2356,7 @@
       </c>
       <c r="K44" s="12"/>
       <c r="L44" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>17</v>
@@ -2392,16 +2368,16 @@
         <v>42478</v>
       </c>
       <c r="B45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C45" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="D45" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="D45" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="13" t="s">
-        <v>70</v>
       </c>
       <c r="F45" s="7" t="n">
         <v>5300</v>
@@ -2422,7 +2398,7 @@
         <v>57259500</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M45" s="10" t="s">
         <v>17</v>
@@ -2434,10 +2410,10 @@
         <v>42478</v>
       </c>
       <c r="B46" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="D46" s="13" t="s">
         <v>14</v>
@@ -2462,7 +2438,7 @@
       </c>
       <c r="K46" s="12"/>
       <c r="L46" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>17</v>
@@ -2474,16 +2450,16 @@
         <v>42478</v>
       </c>
       <c r="B47" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="D47" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>73</v>
       </c>
       <c r="F47" s="7" t="n">
         <v>5200</v>
@@ -2494,17 +2470,17 @@
       <c r="H47" s="9" t="n">
         <v>17576000</v>
       </c>
-      <c r="I47" s="15" t="n">
+      <c r="I47" s="10" t="n">
         <v>2116346</v>
       </c>
       <c r="J47" s="11" t="n">
         <v>42509</v>
       </c>
       <c r="K47" s="12"/>
-      <c r="L47" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M47" s="15" t="s">
+      <c r="L47" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M47" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N47" s="10"/>
@@ -2514,16 +2490,16 @@
         <v>42478</v>
       </c>
       <c r="B48" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="13" t="s">
-        <v>72</v>
-      </c>
       <c r="D48" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F48" s="7" t="n">
         <v>5200</v>
@@ -2534,7 +2510,7 @@
       <c r="H48" s="9" t="n">
         <v>20202000</v>
       </c>
-      <c r="I48" s="15" t="n">
+      <c r="I48" s="10" t="n">
         <v>2116346</v>
       </c>
       <c r="J48" s="11" t="n">
@@ -2543,10 +2519,10 @@
       <c r="K48" s="12" t="n">
         <v>57191000</v>
       </c>
-      <c r="L48" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M48" s="15" t="s">
+      <c r="L48" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M48" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N48" s="10"/>
@@ -2556,10 +2532,10 @@
         <v>42479</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C49" s="13" t="s">
         <v>74</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>75</v>
       </c>
       <c r="D49" s="13" t="s">
         <v>14</v>
@@ -2584,7 +2560,7 @@
       </c>
       <c r="K49" s="12"/>
       <c r="L49" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M49" s="10" t="s">
         <v>17</v>
@@ -2596,16 +2572,16 @@
         <v>42479</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C50" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="D50" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="7" t="n">
         <v>5300</v>
@@ -2626,7 +2602,7 @@
         <v>54583000</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M50" s="10" t="s">
         <v>17</v>
@@ -2634,19 +2610,19 @@
       <c r="N50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="20" t="n">
+      <c r="A51" s="17" t="n">
         <v>42481</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="19" t="s">
+      <c r="D51" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="7" t="n">
@@ -2658,7 +2634,7 @@
       <c r="H51" s="9" t="n">
         <v>51150000</v>
       </c>
-      <c r="I51" s="15" t="n">
+      <c r="I51" s="10" t="n">
         <v>15158465</v>
       </c>
       <c r="J51" s="11" t="n">
@@ -2667,10 +2643,10 @@
       <c r="K51" s="12" t="n">
         <v>51150000</v>
       </c>
-      <c r="L51" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M51" s="15" t="s">
+      <c r="L51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M51" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N51" s="10"/>
@@ -2680,16 +2656,16 @@
         <v>42481</v>
       </c>
       <c r="B52" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C52" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="D52" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52" s="7" t="n">
         <v>5000</v>
@@ -2700,17 +2676,17 @@
       <c r="H52" s="9" t="n">
         <v>16900000</v>
       </c>
-      <c r="I52" s="15" t="n">
+      <c r="I52" s="10" t="n">
         <v>2116319</v>
       </c>
       <c r="J52" s="11" t="n">
         <v>42513</v>
       </c>
       <c r="K52" s="12"/>
-      <c r="L52" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M52" s="15" t="s">
+      <c r="L52" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M52" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N52" s="10"/>
@@ -2720,16 +2696,16 @@
         <v>42481</v>
       </c>
       <c r="B53" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C53" s="13" t="s">
-        <v>79</v>
-      </c>
       <c r="D53" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F53" s="7" t="n">
         <v>10000</v>
@@ -2740,7 +2716,7 @@
       <c r="H53" s="9" t="n">
         <v>38850000</v>
       </c>
-      <c r="I53" s="15" t="n">
+      <c r="I53" s="10" t="n">
         <v>2116319</v>
       </c>
       <c r="J53" s="11" t="n">
@@ -2749,10 +2725,10 @@
       <c r="K53" s="12" t="n">
         <v>55750000</v>
       </c>
-      <c r="L53" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M53" s="15" t="s">
+      <c r="L53" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M53" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N53" s="10"/>
@@ -2762,15 +2738,15 @@
         <v>42481</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C54" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="D54" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E54" s="19" t="s">
+      <c r="E54" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F54" s="7" t="n">
@@ -2782,17 +2758,17 @@
       <c r="H54" s="9" t="n">
         <v>35590500</v>
       </c>
-      <c r="I54" s="15" t="n">
+      <c r="I54" s="10" t="n">
         <v>1546712</v>
       </c>
       <c r="J54" s="11" t="n">
         <v>42516</v>
       </c>
       <c r="K54" s="12"/>
-      <c r="L54" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M54" s="15" t="s">
+      <c r="L54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M54" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N54" s="10"/>
@@ -2802,16 +2778,16 @@
         <v>42481</v>
       </c>
       <c r="B55" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="D55" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F55" s="7" t="n">
         <v>10000</v>
@@ -2822,17 +2798,17 @@
       <c r="H55" s="9" t="n">
         <v>33800000</v>
       </c>
-      <c r="I55" s="15" t="n">
+      <c r="I55" s="10" t="n">
         <v>1546712</v>
       </c>
       <c r="J55" s="11" t="n">
         <v>42516</v>
       </c>
       <c r="K55" s="12"/>
-      <c r="L55" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M55" s="15" t="s">
+      <c r="L55" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M55" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N55" s="10"/>
@@ -2842,16 +2818,16 @@
         <v>42481</v>
       </c>
       <c r="B56" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="C56" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="D56" s="13" t="s">
         <v>14</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F56" s="7" t="n">
         <v>15000</v>
@@ -2862,7 +2838,7 @@
       <c r="H56" s="9" t="n">
         <v>58275000</v>
       </c>
-      <c r="I56" s="15" t="n">
+      <c r="I56" s="10" t="n">
         <v>1546712</v>
       </c>
       <c r="J56" s="11" t="n">
@@ -2871,28 +2847,28 @@
       <c r="K56" s="12" t="n">
         <v>127665500</v>
       </c>
-      <c r="L56" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M56" s="15" t="s">
+      <c r="L56" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M56" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="20" t="n">
+      <c r="A57" s="17" t="n">
         <v>42486</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="21" t="s">
+      <c r="D57" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F57" s="7" t="n">
@@ -2904,7 +2880,7 @@
       <c r="H57" s="9" t="n">
         <v>66836000</v>
       </c>
-      <c r="I57" s="15" t="n">
+      <c r="I57" s="10" t="n">
         <v>15229674</v>
       </c>
       <c r="J57" s="11" t="n">
@@ -2913,29 +2889,29 @@
       <c r="K57" s="12" t="n">
         <v>66836000</v>
       </c>
-      <c r="L57" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M57" s="15" t="s">
+      <c r="L57" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M57" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="20" t="n">
+      <c r="A58" s="17" t="n">
         <v>42488</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C58" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>70</v>
+      <c r="D58" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F58" s="7" t="n">
         <v>15300</v>
@@ -2946,7 +2922,7 @@
       <c r="H58" s="9" t="n">
         <v>59440500</v>
       </c>
-      <c r="I58" s="15" t="n">
+      <c r="I58" s="10" t="n">
         <v>2116357</v>
       </c>
       <c r="J58" s="11" t="n">
@@ -2955,29 +2931,29 @@
       <c r="K58" s="12" t="n">
         <v>59440500</v>
       </c>
-      <c r="L58" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="M58" s="15" t="s">
+      <c r="L58" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M58" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="20" t="n">
+      <c r="A59" s="17" t="n">
         <v>42487</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>73</v>
+      <c r="D59" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="F59" s="7" t="n">
         <v>15800</v>
@@ -2995,29 +2971,29 @@
         <v>42531</v>
       </c>
       <c r="K59" s="12"/>
-      <c r="L59" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M59" s="15" t="s">
+      <c r="L59" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="20" t="n">
+      <c r="A60" s="17" t="n">
         <v>42489</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C60" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C60" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>73</v>
+      <c r="D60" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="18" t="s">
+        <v>72</v>
       </c>
       <c r="F60" s="7" t="n">
         <v>15800</v>
@@ -3046,19 +3022,19 @@
       <c r="N60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="20" t="n">
+      <c r="A61" s="17" t="n">
         <v>42489</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C61" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C61" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D61" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="7" t="n">
@@ -3086,20 +3062,20 @@
       <c r="N61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="20" t="n">
+      <c r="A62" s="17" t="n">
         <v>42489</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C62" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>70</v>
+      <c r="D62" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F62" s="7" t="n">
         <v>5300</v>
@@ -3126,20 +3102,20 @@
       <c r="N62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="20" t="n">
+      <c r="A63" s="17" t="n">
         <v>42489</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C63" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="D63" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>91</v>
-      </c>
-      <c r="D63" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="21" t="s">
-        <v>92</v>
       </c>
       <c r="F63" s="7" t="n">
         <v>4000</v>
@@ -3168,19 +3144,19 @@
       <c r="N63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20" t="n">
+      <c r="A64" s="17" t="n">
         <v>42489</v>
       </c>
-      <c r="B64" s="21" t="s">
+      <c r="B64" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="C64" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D64" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="21" t="s">
+      <c r="D64" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F64" s="7" t="n">
@@ -3192,7 +3168,7 @@
       <c r="H64" s="9" t="n">
         <v>50809000</v>
       </c>
-      <c r="I64" s="15" t="n">
+      <c r="I64" s="10" t="n">
         <v>1546715</v>
       </c>
       <c r="J64" s="11" t="n">
@@ -3201,29 +3177,29 @@
       <c r="K64" s="12" t="n">
         <v>50809000</v>
       </c>
-      <c r="L64" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M64" s="15" t="s">
+      <c r="L64" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M64" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20" t="n">
+      <c r="A65" s="17" t="n">
         <v>42489</v>
       </c>
-      <c r="B65" s="21" t="s">
+      <c r="B65" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C65" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="21" t="s">
+      <c r="D65" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>97</v>
       </c>
       <c r="F65" s="7" t="n">
         <v>5000</v>
@@ -3234,36 +3210,36 @@
       <c r="H65" s="9" t="n">
         <v>20250000</v>
       </c>
-      <c r="I65" s="15" t="n">
+      <c r="I65" s="10" t="n">
         <v>1546714</v>
       </c>
       <c r="J65" s="11" t="n">
         <v>42520</v>
       </c>
       <c r="K65" s="12"/>
-      <c r="L65" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M65" s="15" t="s">
+      <c r="L65" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M65" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20" t="n">
+      <c r="A66" s="17" t="n">
         <v>42489</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C66" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="D66" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>70</v>
+      <c r="D66" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>69</v>
       </c>
       <c r="F66" s="7" t="n">
         <v>15000</v>
@@ -3274,7 +3250,7 @@
       <c r="H66" s="9" t="n">
         <v>58275000</v>
       </c>
-      <c r="I66" s="15" t="n">
+      <c r="I66" s="10" t="n">
         <v>1546714</v>
       </c>
       <c r="J66" s="11" t="n">
@@ -3283,28 +3259,28 @@
       <c r="K66" s="12" t="n">
         <v>78525000</v>
       </c>
-      <c r="L66" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="M66" s="15" t="s">
+      <c r="L66" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M66" s="10" t="s">
         <v>17</v>
       </c>
       <c r="N66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="20" t="n">
+      <c r="A67" s="17" t="n">
         <v>42488</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="C67" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="21" t="s">
+      <c r="D67" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="18" t="s">
         <v>15</v>
       </c>
       <c r="F67" s="7" t="n">
@@ -3334,31 +3310,22 @@
       <c r="N67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H68" s="23" t="n">
+      <c r="H68" s="19" t="n">
         <f aca="false">SUM(H2:H67)</f>
         <v>1883759500</v>
       </c>
-      <c r="K68" s="24" t="n">
+      <c r="K68" s="20" t="n">
         <f aca="false">SUM(K2:K67)</f>
         <v>1873523500</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H71" s="17" t="n">
+      <c r="H71" s="16" t="n">
         <f aca="false">K68-H68</f>
         <v>-10236000</v>
       </c>
-      <c r="O71" s="17" t="n">
-        <f aca="false">+O5</f>
-        <v>-10236000</v>
-      </c>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="O71" s="16"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
